--- a/ASP/Ficha ASP.xlsx
+++ b/ASP/Ficha ASP.xlsx
@@ -1,37 +1,150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27230"/>
   <workbookPr/>
-  <workbookProtection/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_6993BE38838530298606CB7BF2243A2D85B1FDA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Responsavel tecnico pela amostragem</t>
+  </si>
+  <si>
+    <t>Responsavel tecnico pelo preenchimento</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>Ponto de amostragem</t>
+  </si>
+  <si>
+    <t>Identificacao da amostra</t>
+  </si>
+  <si>
+    <t>Data da coleta</t>
+  </si>
+  <si>
+    <t>Hora da coleta</t>
+  </si>
+  <si>
+    <t>Cond. Atmosferica</t>
+  </si>
+  <si>
+    <t>Temperatura ambiente</t>
+  </si>
+  <si>
+    <t>Chuva nas 24 horas</t>
+  </si>
+  <si>
+    <t>Chuva nas 48 horas</t>
+  </si>
+  <si>
+    <t>Tipo de amostrador</t>
+  </si>
+  <si>
+    <t>Tipo amostrador (outro)</t>
+  </si>
+  <si>
+    <t>Tipo de amostra</t>
+  </si>
+  <si>
+    <t>Parametros para analise</t>
+  </si>
+  <si>
+    <t>Parametros para analise (legislacao)</t>
+  </si>
+  <si>
+    <t>Parametros para analise (outros)</t>
+  </si>
+  <si>
+    <t>Aspecto da agua</t>
+  </si>
+  <si>
+    <t>Outro aspecto</t>
+  </si>
+  <si>
+    <t>Presenca de material particulado</t>
+  </si>
+  <si>
+    <t>Odor</t>
+  </si>
+  <si>
+    <t>Cor</t>
+  </si>
+  <si>
+    <t>Observacoes</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Tempo (min)</t>
+  </si>
+  <si>
+    <t>pH (uni pH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp. </t>
+  </si>
+  <si>
+    <t>OD (mg/L)</t>
+  </si>
+  <si>
+    <t>Cond (microS/cm)</t>
+  </si>
+  <si>
+    <t>ORP (mV)</t>
+  </si>
+  <si>
+    <t>Observacoes (amostragem)</t>
+  </si>
+  <si>
+    <t>Observacoes adicionais</t>
+  </si>
+  <si>
+    <t>Resp. tecnico amostragem</t>
+  </si>
+  <si>
+    <t>Resp. tecnico verificacao</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +159,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,189 +483,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Responsavel tecnico pela amostragem</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Responsavel tecnico pelo preenchimento</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Projeto</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ponto de amostragem</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Identificacao da amostra</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Data da coleta</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Hora da coleta</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cond. Atmosferica</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura ambiente</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Chuva nas 24 horas</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Chuva nas 48 horas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de amostrador</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo amostrador (outro)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de amostra</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Parametros para analise</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Parametros para analise (legislacao)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Parametros para analise (outros)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Aspecto da agua</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Outro aspecto</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Presenca de material particulado</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Odor</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Cor</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Observacoes</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Horario</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Tempo (min)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>pH (uni pH)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Temp. </t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>OD (mg/L)</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Cond (microS/cm)</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>ORP (mV)</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Observacoes (amostragem)</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Observacoes adicionais</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Resp. tecnico amostragem</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Resp. tecnico verificacao</t>
-        </is>
+    <row r="1" spans="1:34">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -611,6 +600,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B29F6E6FF83FA94983268F03B4663D92" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e0af9fe4c955a87c166569201c542f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db9d5e65-900d-4136-a2d9-b84c230c9751" xmlns:ns3="067b8a2d-5c94-4f95-8131-a66158bbd083" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91f90cd65e8696f87a03877262d170d8" ns2:_="" ns3:_="">
     <xsd:import namespace="db9d5e65-900d-4136-a2d9-b84c230c9751"/>
@@ -839,15 +837,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -860,11 +849,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BECDAF58-A87D-45DF-AE0B-1B8CC6E256AD}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C85CB12A-58D1-46FB-80A4-59F86B119317}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BECDAF58-A87D-45DF-AE0B-1B8CC6E256AD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
